--- a/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/Solar_ISO.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/Solar_ISO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Desktop\ISONE_SANDY\ISONE_UCED\Model_setup\ISONE_data_file\Scenarios\Renewable_timeseries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Downloads\NREL_ISO_10_4_2021\NREL_ISO_9_24_2021\ISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10453,6 +10453,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="3">
+        <v>0</v>
+      </c>
+      <c r="B386" s="3">
+        <v>0</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3">
+        <v>0</v>
+      </c>
+      <c r="F386" s="3">
+        <v>0</v>
+      </c>
+      <c r="G386" s="3">
+        <v>0</v>
+      </c>
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10460,10 +10486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10493,7 +10519,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20478,6 +20504,32 @@
         <v>0</v>
       </c>
       <c r="H385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>0</v>
+      </c>
+      <c r="B386" s="1">
+        <v>0</v>
+      </c>
+      <c r="C386" s="1">
+        <v>0</v>
+      </c>
+      <c r="D386" s="1">
+        <v>0</v>
+      </c>
+      <c r="E386" s="1">
+        <v>0</v>
+      </c>
+      <c r="F386" s="1">
+        <v>0</v>
+      </c>
+      <c r="G386" s="1">
+        <v>0</v>
+      </c>
+      <c r="H386" s="1">
         <v>0</v>
       </c>
     </row>
@@ -20491,10 +20543,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -30512,6 +30564,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="3">
+        <v>0</v>
+      </c>
+      <c r="B386" s="3">
+        <v>0</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3">
+        <v>0</v>
+      </c>
+      <c r="F386" s="3">
+        <v>0</v>
+      </c>
+      <c r="G386" s="3">
+        <v>0</v>
+      </c>
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/Solar_ISO.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/Solar_ISO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Downloads\NREL_ISO_10_4_2021\NREL_ISO_9_24_2021\ISO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Documents\GitHub\ISONE_UCED_Sandy\Model_setup\ISONE_data_file\Scenarios\Renewable_timeseries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="All Zones Time Series - 2018" sheetId="5" r:id="rId1"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10453,32 +10453,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
-        <v>0</v>
-      </c>
-      <c r="B386" s="3">
-        <v>0</v>
-      </c>
-      <c r="C386" s="3">
-        <v>0</v>
-      </c>
-      <c r="D386" s="3">
-        <v>0</v>
-      </c>
-      <c r="E386" s="3">
-        <v>0</v>
-      </c>
-      <c r="F386" s="3">
-        <v>0</v>
-      </c>
-      <c r="G386" s="3">
-        <v>0</v>
-      </c>
-      <c r="H386" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10486,10 +10460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20504,32 +20478,6 @@
         <v>0</v>
       </c>
       <c r="H385" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <v>0</v>
-      </c>
-      <c r="B386" s="1">
-        <v>0</v>
-      </c>
-      <c r="C386" s="1">
-        <v>0</v>
-      </c>
-      <c r="D386" s="1">
-        <v>0</v>
-      </c>
-      <c r="E386" s="1">
-        <v>0</v>
-      </c>
-      <c r="F386" s="1">
-        <v>0</v>
-      </c>
-      <c r="G386" s="1">
-        <v>0</v>
-      </c>
-      <c r="H386" s="1">
         <v>0</v>
       </c>
     </row>
@@ -20543,10 +20491,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -30564,32 +30512,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
-        <v>0</v>
-      </c>
-      <c r="B386" s="3">
-        <v>0</v>
-      </c>
-      <c r="C386" s="3">
-        <v>0</v>
-      </c>
-      <c r="D386" s="3">
-        <v>0</v>
-      </c>
-      <c r="E386" s="3">
-        <v>0</v>
-      </c>
-      <c r="F386" s="3">
-        <v>0</v>
-      </c>
-      <c r="G386" s="3">
-        <v>0</v>
-      </c>
-      <c r="H386" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
